--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha3F-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha3F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -949,31 +949,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9854415717608656</v>
+        <v>0.9854415717608653</v>
       </c>
       <c r="D13">
-        <v>0.9962907063892166</v>
+        <v>0.996290706389217</v>
       </c>
       <c r="E13">
         <v>0.9956980095968193</v>
       </c>
       <c r="F13">
-        <v>0.9854415717608656</v>
+        <v>0.9854415717608653</v>
       </c>
       <c r="G13">
-        <v>0.9881389825467224</v>
+        <v>0.9881389825467225</v>
       </c>
       <c r="H13">
-        <v>0.9998535884593862</v>
+        <v>0.9998535884593858</v>
       </c>
       <c r="I13">
         <v>0.9856501751847209</v>
       </c>
       <c r="J13">
-        <v>0.9962907063892166</v>
+        <v>0.996290706389217</v>
       </c>
       <c r="K13">
-        <v>0.9959943579930179</v>
+        <v>0.9959943579930182</v>
       </c>
       <c r="L13">
         <v>0.9907179648769417</v>
@@ -1046,7 +1046,7 @@
         <v>1.092331723448326</v>
       </c>
       <c r="H15">
-        <v>0.8684472120320457</v>
+        <v>0.8684472120320456</v>
       </c>
       <c r="I15">
         <v>0.9544445180985303</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9640205614824716</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.632336121838838</v>
+      </c>
+      <c r="D16">
+        <v>1.039049773750829</v>
+      </c>
+      <c r="E16">
+        <v>0.8669497803913691</v>
+      </c>
+      <c r="F16">
+        <v>1.632336121838838</v>
+      </c>
+      <c r="G16">
+        <v>0.9407265842407487</v>
+      </c>
+      <c r="H16">
+        <v>1.56056169696832</v>
+      </c>
+      <c r="I16">
+        <v>0.9008325933958826</v>
+      </c>
+      <c r="J16">
+        <v>1.039049773750829</v>
+      </c>
+      <c r="K16">
+        <v>0.9529997770710992</v>
+      </c>
+      <c r="L16">
+        <v>1.292667949454969</v>
+      </c>
+      <c r="M16">
+        <v>1.156742758430998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.632336121838838</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
@@ -952,31 +952,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9854415717608653</v>
+        <v>0.9854415717608656</v>
       </c>
       <c r="D13">
-        <v>0.996290706389217</v>
+        <v>0.9962907063892166</v>
       </c>
       <c r="E13">
         <v>0.9956980095968193</v>
       </c>
       <c r="F13">
-        <v>0.9854415717608653</v>
+        <v>0.9854415717608656</v>
       </c>
       <c r="G13">
-        <v>0.9881389825467225</v>
+        <v>0.9881389825467224</v>
       </c>
       <c r="H13">
-        <v>0.9998535884593858</v>
+        <v>0.9998535884593862</v>
       </c>
       <c r="I13">
         <v>0.9856501751847209</v>
       </c>
       <c r="J13">
-        <v>0.996290706389217</v>
+        <v>0.9962907063892166</v>
       </c>
       <c r="K13">
-        <v>0.9959943579930182</v>
+        <v>0.9959943579930179</v>
       </c>
       <c r="L13">
         <v>0.9907179648769417</v>
@@ -1049,7 +1049,7 @@
         <v>1.092331723448326</v>
       </c>
       <c r="H15">
-        <v>0.8684472120320456</v>
+        <v>0.8684472120320457</v>
       </c>
       <c r="I15">
         <v>0.9544445180985303</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4367920000000012</v>
+        <v>1.632336121838838</v>
       </c>
       <c r="D10">
-        <v>1.273840000000003</v>
+        <v>1.039049773750829</v>
       </c>
       <c r="E10">
-        <v>2.231227999999997</v>
+        <v>0.8669497803913691</v>
       </c>
       <c r="F10">
-        <v>0.4367920000000012</v>
+        <v>1.632336121838838</v>
       </c>
       <c r="G10">
-        <v>0.4703840000000009</v>
+        <v>0.9407265842407487</v>
       </c>
       <c r="H10">
-        <v>1.422536000000001</v>
+        <v>1.56056169696832</v>
       </c>
       <c r="I10">
-        <v>1.358055999999997</v>
+        <v>0.9008325933958826</v>
       </c>
       <c r="J10">
-        <v>1.273840000000003</v>
+        <v>1.039049773750829</v>
       </c>
       <c r="K10">
-        <v>1.752534</v>
+        <v>0.9529997770710992</v>
       </c>
       <c r="L10">
-        <v>1.094663000000001</v>
+        <v>1.292667949454969</v>
       </c>
       <c r="M10">
-        <v>1.198806</v>
+        <v>1.156742758430998</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>0.865565168152822</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.779041957209686</v>
       </c>
       <c r="E11">
-        <v>3.503762500000005</v>
+        <v>1.045593722660555</v>
       </c>
       <c r="F11">
-        <v>0.02</v>
+        <v>0.865565168152822</v>
       </c>
       <c r="G11">
-        <v>0.07000000000000001</v>
+        <v>0.6339751667770079</v>
       </c>
       <c r="H11">
-        <v>0.8798625000000005</v>
+        <v>2.686634994849316</v>
       </c>
       <c r="I11">
-        <v>1.980837499999997</v>
+        <v>0.825525129067891</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.779041957209686</v>
       </c>
       <c r="K11">
-        <v>1.751881250000002</v>
+        <v>1.41231783993512</v>
       </c>
       <c r="L11">
-        <v>0.8859406250000011</v>
+        <v>1.138941504043971</v>
       </c>
       <c r="M11">
-        <v>1.07574375</v>
+        <v>1.306056023119546</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4237672132608021</v>
+        <v>0.8671073559364372</v>
       </c>
       <c r="D12">
-        <v>0.3769460998144054</v>
+        <v>1.78440019139405</v>
       </c>
       <c r="E12">
-        <v>2.380215189708796</v>
+        <v>1.043634011371434</v>
       </c>
       <c r="F12">
-        <v>0.4237672132608021</v>
+        <v>0.8671073559364372</v>
       </c>
       <c r="G12">
-        <v>0.475242249113601</v>
+        <v>0.6362428823114351</v>
       </c>
       <c r="H12">
-        <v>0.9690109671424031</v>
+        <v>2.671690148825832</v>
       </c>
       <c r="I12">
-        <v>1.531139587072001</v>
+        <v>0.8245356890149779</v>
       </c>
       <c r="J12">
-        <v>0.3769460998144054</v>
+        <v>1.78440019139405</v>
       </c>
       <c r="K12">
-        <v>1.378580644761601</v>
+        <v>1.414017101382742</v>
       </c>
       <c r="L12">
-        <v>0.9011739290112014</v>
+        <v>1.14056222865959</v>
       </c>
       <c r="M12">
-        <v>1.026053551018668</v>
+        <v>1.304601713142361</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9854415717608656</v>
+        <v>0.8651370559443867</v>
       </c>
       <c r="D13">
-        <v>0.9962907063892166</v>
+        <v>1.780764868110878</v>
       </c>
       <c r="E13">
-        <v>0.9956980095968193</v>
+        <v>1.042980660867788</v>
       </c>
       <c r="F13">
-        <v>0.9854415717608656</v>
+        <v>0.8651370559443867</v>
       </c>
       <c r="G13">
-        <v>0.9881389825467224</v>
+        <v>0.6350291646224996</v>
       </c>
       <c r="H13">
-        <v>0.9998535884593862</v>
+        <v>2.689090987602157</v>
       </c>
       <c r="I13">
-        <v>0.9856501751847209</v>
+        <v>0.8233591244772326</v>
       </c>
       <c r="J13">
-        <v>0.9962907063892166</v>
+        <v>1.780764868110878</v>
       </c>
       <c r="K13">
-        <v>0.9959943579930179</v>
+        <v>1.411872764489333</v>
       </c>
       <c r="L13">
-        <v>0.9907179648769417</v>
+        <v>1.13850491021686</v>
       </c>
       <c r="M13">
-        <v>0.9918455056562885</v>
+        <v>1.306060310270824</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.124001737165761</v>
+        <v>0.4367920000000012</v>
       </c>
       <c r="D14">
-        <v>1.084124609181023</v>
+        <v>1.273840000000003</v>
       </c>
       <c r="E14">
-        <v>0.9738166222892486</v>
+        <v>2.231227999999997</v>
       </c>
       <c r="F14">
-        <v>1.124001737165761</v>
+        <v>0.4367920000000012</v>
       </c>
       <c r="G14">
-        <v>0.9667899078408629</v>
+        <v>0.4703840000000009</v>
       </c>
       <c r="H14">
-        <v>0.8942063640296254</v>
+        <v>1.422536000000001</v>
       </c>
       <c r="I14">
-        <v>0.9737782363777726</v>
+        <v>1.358055999999997</v>
       </c>
       <c r="J14">
-        <v>1.084124609181023</v>
+        <v>1.273840000000003</v>
       </c>
       <c r="K14">
-        <v>1.028970615735136</v>
+        <v>1.752534</v>
       </c>
       <c r="L14">
-        <v>1.076486176450449</v>
+        <v>1.094663000000001</v>
       </c>
       <c r="M14">
-        <v>1.002786246147383</v>
+        <v>1.198806</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9250863404092976</v>
+        <v>0.02</v>
       </c>
       <c r="D15">
-        <v>0.957020112577174</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9867934623294556</v>
+        <v>3.503762500000005</v>
       </c>
       <c r="F15">
-        <v>0.9250863404092976</v>
+        <v>0.02</v>
       </c>
       <c r="G15">
-        <v>1.092331723448326</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H15">
-        <v>0.8684472120320457</v>
+        <v>0.8798625000000005</v>
       </c>
       <c r="I15">
-        <v>0.9544445180985303</v>
+        <v>1.980837499999997</v>
       </c>
       <c r="J15">
-        <v>0.957020112577174</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9719067874533148</v>
+        <v>1.751881250000002</v>
       </c>
       <c r="L15">
-        <v>0.9484965639313062</v>
+        <v>0.8859406250000011</v>
       </c>
       <c r="M15">
-        <v>0.9640205614824716</v>
+        <v>1.07574375</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.632336121838838</v>
+        <v>0.4237672132608021</v>
       </c>
       <c r="D16">
-        <v>1.039049773750829</v>
+        <v>0.3769460998144054</v>
       </c>
       <c r="E16">
-        <v>0.8669497803913691</v>
+        <v>2.380215189708796</v>
       </c>
       <c r="F16">
-        <v>1.632336121838838</v>
+        <v>0.4237672132608021</v>
       </c>
       <c r="G16">
-        <v>0.9407265842407487</v>
+        <v>0.475242249113601</v>
       </c>
       <c r="H16">
-        <v>1.56056169696832</v>
+        <v>0.9690109671424031</v>
       </c>
       <c r="I16">
-        <v>0.9008325933958826</v>
+        <v>1.531139587072001</v>
       </c>
       <c r="J16">
-        <v>1.039049773750829</v>
+        <v>0.3769460998144054</v>
       </c>
       <c r="K16">
-        <v>0.9529997770710992</v>
+        <v>1.378580644761601</v>
       </c>
       <c r="L16">
-        <v>1.292667949454969</v>
+        <v>0.9011739290112014</v>
       </c>
       <c r="M16">
-        <v>1.156742758430998</v>
+        <v>1.026053551018668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9854415717608653</v>
+      </c>
+      <c r="D17">
+        <v>0.996290706389217</v>
+      </c>
+      <c r="E17">
+        <v>0.9956980095968193</v>
+      </c>
+      <c r="F17">
+        <v>0.9854415717608653</v>
+      </c>
+      <c r="G17">
+        <v>0.9881389825467225</v>
+      </c>
+      <c r="H17">
+        <v>0.9998535884593858</v>
+      </c>
+      <c r="I17">
+        <v>0.9856501751847209</v>
+      </c>
+      <c r="J17">
+        <v>0.996290706389217</v>
+      </c>
+      <c r="K17">
+        <v>0.9959943579930182</v>
+      </c>
+      <c r="L17">
+        <v>0.9907179648769417</v>
+      </c>
+      <c r="M17">
+        <v>0.9918455056562885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.124001737165761</v>
+      </c>
+      <c r="D18">
+        <v>1.084124609181023</v>
+      </c>
+      <c r="E18">
+        <v>0.9738166222892486</v>
+      </c>
+      <c r="F18">
+        <v>1.124001737165761</v>
+      </c>
+      <c r="G18">
+        <v>0.9667899078408629</v>
+      </c>
+      <c r="H18">
+        <v>0.8942063640296254</v>
+      </c>
+      <c r="I18">
+        <v>0.9737782363777726</v>
+      </c>
+      <c r="J18">
+        <v>1.084124609181023</v>
+      </c>
+      <c r="K18">
+        <v>1.028970615735136</v>
+      </c>
+      <c r="L18">
+        <v>1.076486176450449</v>
+      </c>
+      <c r="M18">
+        <v>1.002786246147383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9250863404092976</v>
+      </c>
+      <c r="D19">
+        <v>0.957020112577174</v>
+      </c>
+      <c r="E19">
+        <v>0.9867934623294556</v>
+      </c>
+      <c r="F19">
+        <v>0.9250863404092976</v>
+      </c>
+      <c r="G19">
+        <v>1.092331723448326</v>
+      </c>
+      <c r="H19">
+        <v>0.8684472120320456</v>
+      </c>
+      <c r="I19">
+        <v>0.9544445180985303</v>
+      </c>
+      <c r="J19">
+        <v>0.957020112577174</v>
+      </c>
+      <c r="K19">
+        <v>0.9719067874533148</v>
+      </c>
+      <c r="L19">
+        <v>0.9484965639313062</v>
+      </c>
+      <c r="M19">
+        <v>0.9640205614824716</v>
       </c>
     </row>
   </sheetData>
